--- a/List_of_reference_categories.xlsx
+++ b/List_of_reference_categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Plan\Road_to_Swedbank\Credit_risk_modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thdam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{9624B16D-6266-415C-A150-7BAB486BE3A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26404EAE-BF2E-4141-AEE0-432CE84D774A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2064" yWindow="3948" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,30 +44,12 @@
     <t>'verification_status:Verified',</t>
   </si>
   <si>
-    <t>'purpose:educ__ren_en__sm_b__mov'</t>
-  </si>
-  <si>
     <t>'initial_list_status:f',</t>
   </si>
   <si>
-    <t>term:60',</t>
-  </si>
-  <si>
-    <t>addr_state:LA_AR_AL_MS_OK_NM_SD_NV_IA',</t>
-  </si>
-  <si>
-    <t>emp_length:0',</t>
-  </si>
-  <si>
     <t>'mths_since_issue_d:&lt;30',</t>
   </si>
   <si>
-    <t>int_rate:&lt;8.392',</t>
-  </si>
-  <si>
-    <t>mths_since_earliest_cr_line:&lt;167',</t>
-  </si>
-  <si>
     <t>'delinq_2yrs:0',</t>
   </si>
   <si>
@@ -77,31 +59,49 @@
     <t>'open_acc:0-3',</t>
   </si>
   <si>
-    <t>pub_rec:0',</t>
-  </si>
-  <si>
     <t>'total_acc:&lt;=27',</t>
   </si>
   <si>
     <t>'acc_now_delinq:0',</t>
   </si>
   <si>
-    <t>total_rev_hi_lim:&lt;=10K',</t>
-  </si>
-  <si>
     <t>'annual_inc:&lt;20K',</t>
   </si>
   <si>
     <t>'mths_since_last_delinq:Missing',</t>
   </si>
   <si>
-    <t>'mths_since_last_record:Missing',</t>
+    <t>'addr_state:LA_AR_AL_MS_OK_NM_SD_NV_IA',</t>
+  </si>
+  <si>
+    <t>'purpose:educ__ren_en__sm_b__mov',</t>
+  </si>
+  <si>
+    <t>'term:60',</t>
+  </si>
+  <si>
+    <t>'emp_length:0',</t>
+  </si>
+  <si>
+    <t>'int_rate:&lt;8.392',</t>
+  </si>
+  <si>
+    <t>'mths_since_earliest_cr_line:&lt;167',</t>
+  </si>
+  <si>
+    <t>'pub_rec:0',</t>
+  </si>
+  <si>
+    <t>'total_rev_hi_lim:&lt;=10K',</t>
+  </si>
+  <si>
+    <t>'mths_since_last_record:Missing'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,11 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +468,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -478,82 +478,82 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
